--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,91 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>okay</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>broken</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>half</t>
+    <t>small</t>
   </si>
   <si>
     <t>thought</t>
@@ -133,19 +148,19 @@
     <t>worked</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>doll</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>doll</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
@@ -154,12 +169,24 @@
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
@@ -169,52 +196,55 @@
     <t>expansion</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>favorite</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>helicopter</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wait</t>
+    <t>family</t>
   </si>
   <si>
     <t>lego</t>
@@ -223,13 +253,22 @@
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>lots</t>
+  </si>
+  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>positive</t>
@@ -590,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.9148936170212766</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.8709677419354839</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="L5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9757281553398058</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9731182795698925</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="C7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.8615384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,37 +948,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L8">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>44</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8">
-        <v>0.859375</v>
-      </c>
-      <c r="L8">
-        <v>55</v>
-      </c>
-      <c r="M8">
-        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -959,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9516129032258065</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8070539419087137</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>389</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>389</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9140625</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C10">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.8340248962655602</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>402</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>402</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.7790530846484935</v>
+        <v>0.7690100430416069</v>
       </c>
       <c r="L11">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M11">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9074074074074074</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.7678571428571429</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9074074074074074</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.7636363636363637</v>
+        <v>0.7155963302752294</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8947368421052632</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.691131498470948</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L14">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,16 +1319,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.6785714285714286</v>
+        <v>0.5852459016393443</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>714</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>714</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8688524590163934</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.6024096385542169</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8412698412698413</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.5898277276456112</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L17">
-        <v>719</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>720</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>500</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1430,16 +1469,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.5797101449275363</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8104265402843602</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="C19">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.5120481927710844</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8103448275862069</v>
+        <v>0.8199052132701422</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.4571428571428571</v>
+        <v>0.5069637883008357</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7702702702702703</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1577,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.765625</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1630,16 +1669,16 @@
         <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.403899721448468</v>
+        <v>0.4188034188034188</v>
       </c>
       <c r="L22">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>214</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1680,16 +1719,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.2660609993510707</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L23">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7228915662650602</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1727,31 +1766,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.1710526315789474</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L24">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>945</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,13 +1798,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6984126984126984</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1777,7 +1816,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25">
+        <v>0.2913692407527579</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+      <c r="M25">
+        <v>449</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1092</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1785,13 +1848,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6888888888888889</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1803,7 +1866,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1811,13 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6707317073170732</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1829,7 +1916,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>0.2366345311130587</v>
+      </c>
+      <c r="L27">
+        <v>270</v>
+      </c>
+      <c r="M27">
+        <v>270</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>871</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1837,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6607142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1855,7 +1966,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="L28">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>34</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1863,13 +1998,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6521739130434783</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1881,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1889,13 +2024,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6134453781512605</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="C30">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1907,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1915,13 +2050,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6111111111111112</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1933,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1941,13 +2076,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6089108910891089</v>
+        <v>0.6875</v>
       </c>
       <c r="C32">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1959,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1967,13 +2102,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5925925925925926</v>
+        <v>0.6494845360824743</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1985,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1993,13 +2128,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5876288659793815</v>
+        <v>0.625</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2011,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2019,13 +2154,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5797101449275363</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C35">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="D35">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2037,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2045,13 +2180,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5126582278481012</v>
+        <v>0.6115942028985507</v>
       </c>
       <c r="C36">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="D36">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2063,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2071,13 +2206,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3956043956043956</v>
+        <v>0.5841584158415841</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2089,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2097,13 +2232,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3837209302325582</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2115,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2123,13 +2258,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2681159420289855</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="C39">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="D39">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2141,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>202</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2149,13 +2284,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.23</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C40">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2167,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2175,13 +2310,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1993670886075949</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C41">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2193,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>253</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2201,13 +2336,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.05044510385756677</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2219,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>640</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2227,13 +2362,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04885496183206107</v>
+        <v>0.3196202531645569</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2245,7 +2380,241 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>623</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.3152173913043478</v>
+      </c>
+      <c r="C44">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.305</v>
+      </c>
+      <c r="C45">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>61</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.2046783625730994</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.1693989071038251</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.1439169139465875</v>
+      </c>
+      <c r="C48">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>97</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1408045977011494</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1167192429022082</v>
+      </c>
+      <c r="C50">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>37</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1145374449339207</v>
+      </c>
+      <c r="C51">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.09312977099236641</v>
+      </c>
+      <c r="C52">
+        <v>61</v>
+      </c>
+      <c r="D52">
+        <v>61</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
